--- a/data/trans_orig/P6710-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6710-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>20318</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11986</v>
+        <v>12524</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29981</v>
+        <v>31112</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2452365956495411</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.144673387888982</v>
+        <v>0.1511596894809526</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3618696149418028</v>
+        <v>0.3755145602676117</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -763,19 +763,19 @@
         <v>15083</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8790</v>
+        <v>8871</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22304</v>
+        <v>22341</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1717806278442929</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.100111686868979</v>
+        <v>0.1010334920737415</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2540341521378637</v>
+        <v>0.254448702695861</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -784,19 +784,19 @@
         <v>35401</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25471</v>
+        <v>25123</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47579</v>
+        <v>49013</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2074432875158963</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1492593012278871</v>
+        <v>0.1472159171966416</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2788061524053701</v>
+        <v>0.2872115320329859</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>8800</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4408</v>
+        <v>3812</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15380</v>
+        <v>15377</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1062107769956333</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05320562744641669</v>
+        <v>0.04601175340314023</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.185639824754024</v>
+        <v>0.185601173676031</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -834,19 +834,19 @@
         <v>3868</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>974</v>
+        <v>958</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8833</v>
+        <v>9014</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04405462041698342</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01108857544514269</v>
+        <v>0.01091551479370327</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1006077226580221</v>
+        <v>0.102669585308164</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>13</v>
@@ -855,19 +855,19 @@
         <v>12668</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7224</v>
+        <v>6910</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>20599</v>
+        <v>20705</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07423125445761355</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04233117725420251</v>
+        <v>0.0404907713945443</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1207061574386944</v>
+        <v>0.1213288793479523</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>18413</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11825</v>
+        <v>11852</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27589</v>
+        <v>27369</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2222430424566247</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1427246439284943</v>
+        <v>0.1430519701008646</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3329966511675165</v>
+        <v>0.3303424174968466</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>14</v>
@@ -905,19 +905,19 @@
         <v>13626</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7721</v>
+        <v>7747</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20776</v>
+        <v>21256</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1551888649676998</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08794110863880587</v>
+        <v>0.08823827255812575</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.236624892430645</v>
+        <v>0.2420937205819763</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>31</v>
@@ -926,19 +926,19 @@
         <v>32039</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>22748</v>
+        <v>22772</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>43751</v>
+        <v>43121</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1877434739776428</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.133299956423524</v>
+        <v>0.1334407280880442</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2563742261373121</v>
+        <v>0.2526822545050631</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>14040</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7967</v>
+        <v>8010</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22300</v>
+        <v>21821</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1694660724924494</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09615752763845958</v>
+        <v>0.0966808296815094</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.269153318161975</v>
+        <v>0.2633707041986091</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -976,19 +976,19 @@
         <v>20140</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13075</v>
+        <v>13216</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28846</v>
+        <v>28593</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2293848676280685</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1489160065856356</v>
+        <v>0.1505210285955146</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3285391971553337</v>
+        <v>0.3256570269157595</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -997,19 +997,19 @@
         <v>34181</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>24419</v>
+        <v>24557</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>46462</v>
+        <v>44689</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2002944660895642</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1430949391645194</v>
+        <v>0.1439024037983261</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2722589462222666</v>
+        <v>0.2618704567977512</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>21280</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>13945</v>
+        <v>13732</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30844</v>
+        <v>29759</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2568435124057517</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1683183824201895</v>
+        <v>0.1657403589029139</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.372282224420955</v>
+        <v>0.3591870994554617</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>34</v>
@@ -1047,19 +1047,19 @@
         <v>35084</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>26942</v>
+        <v>26610</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>44632</v>
+        <v>43814</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3995910191429554</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3068474241245956</v>
+        <v>0.3030681320082791</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5083309193550587</v>
+        <v>0.4990199633188091</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>55</v>
@@ -1068,19 +1068,19 @@
         <v>56364</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>43420</v>
+        <v>44663</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>68505</v>
+        <v>68271</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3302875179592831</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2544344979516288</v>
+        <v>0.2617221954270624</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4014312278392412</v>
+        <v>0.4000579091544273</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>40868</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30240</v>
+        <v>29273</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>57245</v>
+        <v>54620</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1075839870915048</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07960624179360672</v>
+        <v>0.07706224297388276</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1506963212044594</v>
+        <v>0.1437864606178145</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -1193,19 +1193,19 @@
         <v>40928</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29495</v>
+        <v>29100</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53929</v>
+        <v>54318</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1504424359858336</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1084155396850421</v>
+        <v>0.1069654483242722</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1982303221578492</v>
+        <v>0.1996595663081333</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>76</v>
@@ -1214,19 +1214,19 @@
         <v>81796</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>64762</v>
+        <v>65864</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>102360</v>
+        <v>100181</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1254691526632744</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09934115545800906</v>
+        <v>0.1010315750377204</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1570136568911616</v>
+        <v>0.1536712780571139</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>22502</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13769</v>
+        <v>14371</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>33182</v>
+        <v>33881</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05923664025379439</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03624798163966671</v>
+        <v>0.03783116276389254</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08735204728947608</v>
+        <v>0.08919155400091486</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>26</v>
@@ -1264,19 +1264,19 @@
         <v>28529</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19162</v>
+        <v>19644</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>41200</v>
+        <v>40077</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1048648026233409</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07043533862090684</v>
+        <v>0.07220817087574777</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1514426735289758</v>
+        <v>0.1473158682920044</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>47</v>
@@ -1285,19 +1285,19 @@
         <v>51031</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>36949</v>
+        <v>36942</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>66575</v>
+        <v>66266</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0782776288982274</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05667720909603218</v>
+        <v>0.0566663999549672</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1021222311959357</v>
+        <v>0.1016477106353121</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>97780</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>82314</v>
+        <v>80517</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>116307</v>
+        <v>115775</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2574040790083249</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2166905377475146</v>
+        <v>0.2119599794964715</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3061768799388429</v>
+        <v>0.3047775044843132</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>48</v>
@@ -1335,19 +1335,19 @@
         <v>51529</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>38007</v>
+        <v>39249</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>65672</v>
+        <v>65267</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1894082314344807</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1397050108001103</v>
+        <v>0.1442707527296037</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2413958341450934</v>
+        <v>0.2399082541045447</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>143</v>
@@ -1356,19 +1356,19 @@
         <v>149308</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>129116</v>
+        <v>128023</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>171243</v>
+        <v>171995</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2290288805719687</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1980546530944386</v>
+        <v>0.1963793897987907</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2626749241283962</v>
+        <v>0.2638287144351329</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>76249</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>61460</v>
+        <v>62841</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>94417</v>
+        <v>93440</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2007243077370295</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1617922909666518</v>
+        <v>0.1654291286099942</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2485512214423103</v>
+        <v>0.2459812318795926</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -1406,19 +1406,19 @@
         <v>52965</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41370</v>
+        <v>41474</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>67170</v>
+        <v>67230</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1946866176597919</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.152066593203678</v>
+        <v>0.1524486806383906</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2469039746906758</v>
+        <v>0.2471238112497754</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>127</v>
@@ -1427,19 +1427,19 @@
         <v>129213</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>110734</v>
+        <v>110944</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>152601</v>
+        <v>150514</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1982047324960153</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1698585357689126</v>
+        <v>0.1701803988218642</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2340790555146493</v>
+        <v>0.2308777965006548</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>142470</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>123693</v>
+        <v>124242</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>164088</v>
+        <v>161910</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3750509859093464</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3256222149190762</v>
+        <v>0.3270649562351829</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4319598100979696</v>
+        <v>0.4262282298596832</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>91</v>
@@ -1477,19 +1477,19 @@
         <v>98101</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>79845</v>
+        <v>82952</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>113740</v>
+        <v>114651</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3605979122965529</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2934929376530209</v>
+        <v>0.3049128356946879</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.418082444507147</v>
+        <v>0.4214331389517438</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>227</v>
@@ -1498,19 +1498,19 @@
         <v>240571</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>214531</v>
+        <v>215783</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>265443</v>
+        <v>266891</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3690196053705143</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3290764769363834</v>
+        <v>0.3309969961737282</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4071716794968147</v>
+        <v>0.4093932068600897</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>32600</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22068</v>
+        <v>22727</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>44746</v>
+        <v>45229</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07742623835769172</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05241415713531473</v>
+        <v>0.05397773799853774</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1062738295921808</v>
+        <v>0.1074210212328263</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -1623,19 +1623,19 @@
         <v>30666</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20836</v>
+        <v>21638</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42337</v>
+        <v>42509</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1084253437750656</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07366899073797133</v>
+        <v>0.076502446683539</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1496879275145453</v>
+        <v>0.1502974321501425</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>61</v>
@@ -1644,19 +1644,19 @@
         <v>63266</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>49041</v>
+        <v>49067</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>79524</v>
+        <v>79549</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08988247152315919</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06967258194511253</v>
+        <v>0.0697101985152114</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1129799863645811</v>
+        <v>0.1130153025385262</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>46404</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>32626</v>
+        <v>34219</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>60254</v>
+        <v>61850</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1102132258095339</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07748843896045968</v>
+        <v>0.08127228387449453</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1431071830864566</v>
+        <v>0.1468971780292865</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>32</v>
@@ -1694,19 +1694,19 @@
         <v>34352</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>23887</v>
+        <v>23215</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>46118</v>
+        <v>45746</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1214571560061527</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08445671878923994</v>
+        <v>0.08208060492341634</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1630559252291923</v>
+        <v>0.1617418857841558</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>73</v>
@@ -1715,19 +1715,19 @@
         <v>80757</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>63787</v>
+        <v>65322</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>101636</v>
+        <v>99862</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.114731324455917</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09062254732383009</v>
+        <v>0.09280302535119794</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1443949613985577</v>
+        <v>0.1418746564857127</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>74982</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>60864</v>
+        <v>59025</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>92827</v>
+        <v>91170</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1780879448560322</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.144556066323324</v>
+        <v>0.1401885550012171</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2204707221627226</v>
+        <v>0.2165354033596361</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>57</v>
@@ -1765,19 +1765,19 @@
         <v>58395</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>45872</v>
+        <v>44451</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>71767</v>
+        <v>73235</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2064644969519119</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1621856009294322</v>
+        <v>0.1571637960839987</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2537421190590013</v>
+        <v>0.2589335435617972</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>131</v>
@@ -1786,19 +1786,19 @@
         <v>133378</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>114298</v>
+        <v>115178</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>153956</v>
+        <v>156853</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1894903690414801</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1623839966988589</v>
+        <v>0.163634362561607</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2187266194407277</v>
+        <v>0.2228426707842873</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>106493</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>90365</v>
+        <v>88800</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>126970</v>
+        <v>124366</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2529291087863488</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.214622376516091</v>
+        <v>0.2109056703544268</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3015629925416554</v>
+        <v>0.2953773113037299</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>59</v>
@@ -1836,19 +1836,19 @@
         <v>61573</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>50036</v>
+        <v>49699</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>77229</v>
+        <v>76515</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2176997921008566</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1769083223579678</v>
+        <v>0.1757190156966392</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2730546022139356</v>
+        <v>0.2705297896693339</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>165</v>
@@ -1857,19 +1857,19 @@
         <v>168066</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>145544</v>
+        <v>145913</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>193632</v>
+        <v>191421</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2387730685720838</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2067747780783973</v>
+        <v>0.2072989513828923</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2750948152493062</v>
+        <v>0.2719536902000084</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>160561</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>139913</v>
+        <v>140957</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>180686</v>
+        <v>182028</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3813434821903934</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3323026112283797</v>
+        <v>0.334782147537396</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4291430162837442</v>
+        <v>0.4323294558438837</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>93</v>
@@ -1907,19 +1907,19 @@
         <v>97848</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>82575</v>
+        <v>84099</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>113150</v>
+        <v>116076</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3459532111660132</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2919541639275486</v>
+        <v>0.2973417358706255</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4000574831746927</v>
+        <v>0.4104033439313628</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>246</v>
@@ -1928,19 +1928,19 @@
         <v>258409</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>233509</v>
+        <v>232344</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>284436</v>
+        <v>284231</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3671227664073599</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3317480949241921</v>
+        <v>0.3300923605144939</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4040999516644752</v>
+        <v>0.4038088317566639</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>33233</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23206</v>
+        <v>23369</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>47288</v>
+        <v>45221</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09066893597596697</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06331166738455496</v>
+        <v>0.06375813787258558</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1290143120135771</v>
+        <v>0.123376387266027</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>29</v>
@@ -2053,19 +2053,19 @@
         <v>31999</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21654</v>
+        <v>22057</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>43040</v>
+        <v>43915</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.142002644099631</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09609421072635158</v>
+        <v>0.09788420741380111</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1910004426918809</v>
+        <v>0.1948851770714387</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>59</v>
@@ -2074,19 +2074,19 @@
         <v>65232</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>50086</v>
+        <v>50119</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>82140</v>
+        <v>81822</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1102129540732303</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08462246415853332</v>
+        <v>0.08467946356923396</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1387798218027105</v>
+        <v>0.1382434044131306</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>29809</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>20103</v>
+        <v>20510</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>41504</v>
+        <v>40997</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08132587215967603</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05484785990034064</v>
+        <v>0.05595607586067577</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.113234817005272</v>
+        <v>0.1118520994391901</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>19</v>
@@ -2124,19 +2124,19 @@
         <v>23183</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>14445</v>
+        <v>13777</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>35683</v>
+        <v>33878</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1028784279571491</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06410379752052231</v>
+        <v>0.06113707676698199</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1583517461730887</v>
+        <v>0.1503437800398615</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>47</v>
@@ -2145,19 +2145,19 @@
         <v>52991</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>37142</v>
+        <v>39537</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>69079</v>
+        <v>69785</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08953146563703318</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06275348300265564</v>
+        <v>0.06680059494913906</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1167119449708216</v>
+        <v>0.1179050794217339</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>71102</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>56618</v>
+        <v>55386</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>87894</v>
+        <v>87206</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1939844928076998</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.15446907110993</v>
+        <v>0.1511093156832518</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2397993755742397</v>
+        <v>0.2379231413776823</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>33</v>
@@ -2195,19 +2195,19 @@
         <v>40224</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>28337</v>
+        <v>28211</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>55113</v>
+        <v>54547</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1785028945414937</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1257541105702823</v>
+        <v>0.1251920581088642</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2445788104158884</v>
+        <v>0.242067203163742</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>93</v>
@@ -2216,19 +2216,19 @@
         <v>111325</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>93086</v>
+        <v>91945</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>136905</v>
+        <v>134679</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.188090263698819</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1572734053480729</v>
+        <v>0.1553456925969809</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2313089843115562</v>
+        <v>0.2275471595665455</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>74075</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>57911</v>
+        <v>59529</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>92343</v>
+        <v>91077</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2020983100264761</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1579979112755533</v>
+        <v>0.1624125539358852</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2519366210021695</v>
+        <v>0.2484820733244193</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>36</v>
@@ -2266,19 +2266,19 @@
         <v>39638</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>28205</v>
+        <v>28993</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>51721</v>
+        <v>54527</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1759026101934844</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1251662244255362</v>
+        <v>0.1286645920598483</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2295230187322803</v>
+        <v>0.2419767447080607</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>103</v>
@@ -2287,19 +2287,19 @@
         <v>113713</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>94313</v>
+        <v>93637</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>135571</v>
+        <v>134787</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1921249562532961</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1593473213897983</v>
+        <v>0.1582042832936696</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2290547052413118</v>
+        <v>0.2277301979629076</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>158313</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>138501</v>
+        <v>139481</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>178851</v>
+        <v>179693</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.431922389030181</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3778690163560267</v>
+        <v>0.3805431526778384</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4879547900368194</v>
+        <v>0.4902518241325799</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>76</v>
@@ -2337,19 +2337,19 @@
         <v>90297</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>74465</v>
+        <v>74487</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>106055</v>
+        <v>106448</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4007134232082418</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3304567553859773</v>
+        <v>0.330554650850022</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4706430773706802</v>
+        <v>0.4723862058875992</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>216</v>
@@ -2358,19 +2358,19 @@
         <v>248610</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>224329</v>
+        <v>220228</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>275214</v>
+        <v>275200</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4200403603376214</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3790163435633386</v>
+        <v>0.372086954996581</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4649886102757836</v>
+        <v>0.4649654777957225</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>11570</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6131</v>
+        <v>6244</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>19412</v>
+        <v>19377</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07398773954964827</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03920475644053269</v>
+        <v>0.0399299601734838</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1241314696083119</v>
+        <v>0.1239037383511481</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -2483,19 +2483,19 @@
         <v>4135</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>9472</v>
+        <v>9578</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05933155369792997</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01515197640279761</v>
+        <v>0.01517332693312357</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1359094019019464</v>
+        <v>0.137437945896106</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>15</v>
@@ -2504,19 +2504,19 @@
         <v>15705</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>9411</v>
+        <v>9360</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>25593</v>
+        <v>25148</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06946977614266468</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04162646540727419</v>
+        <v>0.04140122543610752</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1132039804811645</v>
+        <v>0.111237466987021</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>4491</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1132</v>
+        <v>1146</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>13105</v>
+        <v>13244</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02871978419334834</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.007238857910965295</v>
+        <v>0.007329084624731616</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08380198702902879</v>
+        <v>0.08468761423440765</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6356</v>
+        <v>6143</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02828744891989635</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09119935009317724</v>
+        <v>0.08815295371748075</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5</v>
@@ -2575,19 +2575,19 @@
         <v>6463</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2149</v>
+        <v>2074</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>15311</v>
+        <v>15149</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02858651111911428</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.009506077723160433</v>
+        <v>0.009172480064945003</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06772549353462984</v>
+        <v>0.06700683965036165</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>31312</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>20863</v>
+        <v>21892</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>42863</v>
+        <v>42262</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2002260469756927</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1334109176299527</v>
+        <v>0.1399915232712027</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2740896423977956</v>
+        <v>0.270242968719335</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>11</v>
@@ -2625,19 +2625,19 @@
         <v>12561</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>7066</v>
+        <v>6512</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>21136</v>
+        <v>20734</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1802321729138468</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1013885655272191</v>
+        <v>0.09344585474505598</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3032796244744229</v>
+        <v>0.2975070759799089</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>39</v>
@@ -2646,19 +2646,19 @@
         <v>43873</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>32641</v>
+        <v>32574</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>58289</v>
+        <v>56440</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.194062670481346</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1443808424329442</v>
+        <v>0.1440843204994656</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2578287692752736</v>
+        <v>0.249653857353089</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>30241</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>20938</v>
+        <v>20180</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>40999</v>
+        <v>41529</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1933787084298112</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1338865592988765</v>
+        <v>0.1290436972562792</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2621682385845354</v>
+        <v>0.2655572334606365</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>12</v>
@@ -2696,19 +2696,19 @@
         <v>13586</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>7442</v>
+        <v>7564</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>21667</v>
+        <v>21004</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1949428978735917</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1067827425001434</v>
+        <v>0.1085364493022142</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3109068407092292</v>
+        <v>0.3013901644752178</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>40</v>
@@ -2717,19 +2717,19 @@
         <v>43827</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>31774</v>
+        <v>32185</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>57009</v>
+        <v>56502</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1938608905432266</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1405477949895104</v>
+        <v>0.1423640219105864</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2521688784326373</v>
+        <v>0.2499264012339063</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>78769</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>66087</v>
+        <v>65927</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>91598</v>
+        <v>90936</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5036877208514995</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4225945861615533</v>
+        <v>0.4215744253470816</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5857255148989045</v>
+        <v>0.5814948787663829</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>34</v>
@@ -2767,19 +2767,19 @@
         <v>37438</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>29224</v>
+        <v>28336</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>46749</v>
+        <v>46061</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5372059265947352</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.419341317263149</v>
+        <v>0.4065926962441886</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6708060419943287</v>
+        <v>0.6609272943805181</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>110</v>
@@ -2788,19 +2788,19 @@
         <v>116207</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>100948</v>
+        <v>99938</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>131101</v>
+        <v>131875</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5140201517136486</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4465254185545271</v>
+        <v>0.4420571080468146</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5799014305329008</v>
+        <v>0.58332202264832</v>
       </c>
     </row>
     <row r="33">
@@ -2892,19 +2892,19 @@
         <v>138589</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>115653</v>
+        <v>116299</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>161445</v>
+        <v>163880</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.09852233575429521</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.08221712366291971</v>
+        <v>0.08267644145177092</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1147706967523816</v>
+        <v>0.1165014380001159</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>114</v>
@@ -2913,19 +2913,19 @@
         <v>122811</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>105214</v>
+        <v>103585</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>143560</v>
+        <v>145850</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.130967719040766</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1122023104065496</v>
+        <v>0.1104653545029503</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1530948616540439</v>
+        <v>0.1555370182591926</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>243</v>
@@ -2934,19 +2934,19 @@
         <v>261400</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>230672</v>
+        <v>230547</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>294958</v>
+        <v>290679</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1114999436165553</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.09839299039237857</v>
+        <v>0.09833991901025221</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.125814327552921</v>
+        <v>0.1239890529585781</v>
       </c>
     </row>
     <row r="35">
@@ -2963,19 +2963,19 @@
         <v>112006</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>93042</v>
+        <v>91076</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>134701</v>
+        <v>135710</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.07962448758153806</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.06614340712724064</v>
+        <v>0.06474581291401517</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.09575828563218951</v>
+        <v>0.09647578407560309</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>83</v>
@@ -2984,19 +2984,19 @@
         <v>91903</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>73522</v>
+        <v>73471</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>111102</v>
+        <v>113159</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.09800707145943535</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.07840556900657634</v>
+        <v>0.078351155685044</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1184811527899216</v>
+        <v>0.1206750965263645</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>185</v>
@@ -3005,19 +3005,19 @@
         <v>203909</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>175072</v>
+        <v>175776</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>235071</v>
+        <v>232491</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.08697721209571979</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0746767363520088</v>
+        <v>0.07497727455559938</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1002695066882403</v>
+        <v>0.09916907763609885</v>
       </c>
     </row>
     <row r="36">
@@ -3034,19 +3034,19 @@
         <v>293588</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>264993</v>
+        <v>260518</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>327069</v>
+        <v>325493</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2087109446094607</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1883825676087348</v>
+        <v>0.1852014443370812</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2325122010128136</v>
+        <v>0.2313920635452418</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>163</v>
@@ -3055,19 +3055,19 @@
         <v>176334</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>155345</v>
+        <v>155169</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>203430</v>
+        <v>202985</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1880461182124862</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1656622986364352</v>
+        <v>0.1654752918380249</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2169415066882214</v>
+        <v>0.2164670546782912</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>437</v>
@@ -3076,19 +3076,19 @@
         <v>469923</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>431065</v>
+        <v>431015</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>508010</v>
+        <v>511225</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2004453614553408</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1838706043557537</v>
+        <v>0.183849182459204</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2166913879356115</v>
+        <v>0.2180626634734836</v>
       </c>
     </row>
     <row r="37">
@@ -3105,19 +3105,19 @@
         <v>301099</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>268710</v>
+        <v>271899</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>334174</v>
+        <v>335706</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2140503518733906</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1910247830494356</v>
+        <v>0.1932922136962496</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2375633605866004</v>
+        <v>0.2386518632288294</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>177</v>
@@ -3126,19 +3126,19 @@
         <v>187902</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>164114</v>
+        <v>162602</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>215416</v>
+        <v>214035</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2003818599326855</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1750137094698734</v>
+        <v>0.1734020529226805</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2297234344175531</v>
+        <v>0.2282505011290638</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>468</v>
@@ -3147,19 +3147,19 @@
         <v>489001</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>448812</v>
+        <v>451499</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>529510</v>
+        <v>530610</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2085831848835988</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1914407340125751</v>
+        <v>0.1925865721103756</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.225862149098775</v>
+        <v>0.2263314352455639</v>
       </c>
     </row>
     <row r="38">
@@ -3176,19 +3176,19 @@
         <v>561393</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>526897</v>
+        <v>524772</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>599331</v>
+        <v>604126</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3990918801813154</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3745693537260401</v>
+        <v>0.3730581446760359</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.426062408314538</v>
+        <v>0.429470777992503</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>328</v>
@@ -3197,19 +3197,19 @@
         <v>358768</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>328238</v>
+        <v>329234</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>387284</v>
+        <v>387612</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3825972313546269</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3500395367872458</v>
+        <v>0.3511013523422671</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4130073330491978</v>
+        <v>0.413356328866592</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>854</v>
@@ -3218,19 +3218,19 @@
         <v>920161</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>872572</v>
+        <v>873440</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>969883</v>
+        <v>970842</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3924942979487852</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3721952291547888</v>
+        <v>0.3725656156645795</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4137032281214945</v>
+        <v>0.4141121447631055</v>
       </c>
     </row>
     <row r="39">
@@ -3563,19 +3563,19 @@
         <v>13000</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7153</v>
+        <v>7363</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20823</v>
+        <v>20762</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1643298517294499</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0904155539964135</v>
+        <v>0.09307392138789156</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2632208388184178</v>
+        <v>0.2624422135139229</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -3584,19 +3584,19 @@
         <v>12816</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7458</v>
+        <v>7392</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20248</v>
+        <v>19505</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1395224649867076</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08118903404940522</v>
+        <v>0.08047525203546005</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2204379454172172</v>
+        <v>0.2123435483139846</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -3605,19 +3605,19 @@
         <v>25816</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17181</v>
+        <v>17467</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36124</v>
+        <v>36110</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1510014443228252</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1004968226747543</v>
+        <v>0.102164843800473</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2112934663685491</v>
+        <v>0.2112150339906424</v>
       </c>
     </row>
     <row r="5">
@@ -3634,19 +3634,19 @@
         <v>15526</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9299</v>
+        <v>10065</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24223</v>
+        <v>24105</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.196257076224098</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1175506074224078</v>
+        <v>0.1272256818290102</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3061933704301654</v>
+        <v>0.3047066267868007</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -3655,19 +3655,19 @@
         <v>21843</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14663</v>
+        <v>13830</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>30856</v>
+        <v>29786</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2377951690759495</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1596275634123812</v>
+        <v>0.150566460022452</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3359251463554087</v>
+        <v>0.3242701511254417</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>36</v>
@@ -3676,19 +3676,19 @@
         <v>37368</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>27770</v>
+        <v>27955</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>49621</v>
+        <v>48691</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2185744863634653</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1624335899612719</v>
+        <v>0.1635153746670281</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2902420532029581</v>
+        <v>0.2848026889328756</v>
       </c>
     </row>
     <row r="6">
@@ -3705,19 +3705,19 @@
         <v>24718</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17444</v>
+        <v>16997</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>34284</v>
+        <v>34830</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3124577698786732</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2205102125643989</v>
+        <v>0.2148598751360022</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4333767937401413</v>
+        <v>0.4402779696868475</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>23</v>
@@ -3726,19 +3726,19 @@
         <v>21866</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14806</v>
+        <v>14607</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>30712</v>
+        <v>29747</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.23804576467856</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1611917072541829</v>
+        <v>0.1590240189040046</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3343478455521028</v>
+        <v>0.3238472830209542</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>45</v>
@@ -3747,19 +3747,19 @@
         <v>46584</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>34913</v>
+        <v>34747</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>59316</v>
+        <v>57501</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2724780037091816</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2042099235317023</v>
+        <v>0.2032427388023466</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3469494218241487</v>
+        <v>0.3363336241635366</v>
       </c>
     </row>
     <row r="7">
@@ -3776,19 +3776,19 @@
         <v>16481</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10041</v>
+        <v>9883</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24925</v>
+        <v>24285</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2083325039065778</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1269292016240243</v>
+        <v>0.124929918966609</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3150689758277598</v>
+        <v>0.306983135347374</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -3797,19 +3797,19 @@
         <v>19819</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12423</v>
+        <v>13036</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27575</v>
+        <v>28019</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2157637494264845</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1352456983487591</v>
+        <v>0.1419164649790337</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3002044691691324</v>
+        <v>0.3050360332203256</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>36</v>
@@ -3818,19 +3818,19 @@
         <v>36300</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26056</v>
+        <v>26912</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>47849</v>
+        <v>49327</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2123251319433438</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.152404391348685</v>
+        <v>0.1574153899393649</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2798789976385235</v>
+        <v>0.2885209498233087</v>
       </c>
     </row>
     <row r="8">
@@ -3847,19 +3847,19 @@
         <v>9384</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4261</v>
+        <v>4242</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16729</v>
+        <v>16183</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.118622798261201</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05385978949830021</v>
+        <v>0.05361866302806321</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2114698196325626</v>
+        <v>0.2045627692417657</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>16</v>
@@ -3868,19 +3868,19 @@
         <v>15512</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9254</v>
+        <v>8895</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>23244</v>
+        <v>22387</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1688728518322984</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1007469930691924</v>
+        <v>0.09683572843811948</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2530507650332821</v>
+        <v>0.2437225012510631</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>25</v>
@@ -3889,19 +3889,19 @@
         <v>24896</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>16616</v>
+        <v>16871</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>35053</v>
+        <v>35701</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1456209336611841</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09718926894540242</v>
+        <v>0.09868273414941497</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2050323953897793</v>
+        <v>0.2088234716417438</v>
       </c>
     </row>
     <row r="9">
@@ -3993,19 +3993,19 @@
         <v>47402</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35166</v>
+        <v>35937</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>62719</v>
+        <v>64419</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1377221473826771</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1021729220619986</v>
+        <v>0.1044114819509174</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1822255461521184</v>
+        <v>0.1871649067510956</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -4014,19 +4014,19 @@
         <v>42406</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31404</v>
+        <v>31301</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55106</v>
+        <v>54253</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1549268000526539</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.114733068826557</v>
+        <v>0.1143574160801353</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.201325946236228</v>
+        <v>0.1982093459645447</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>88</v>
@@ -4035,19 +4035,19 @@
         <v>89808</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>73111</v>
+        <v>72514</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>108537</v>
+        <v>108767</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1453434151862706</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1183208237060994</v>
+        <v>0.1173549041040265</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1756535508835244</v>
+        <v>0.1760257601267346</v>
       </c>
     </row>
     <row r="11">
@@ -4064,19 +4064,19 @@
         <v>70646</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>57811</v>
+        <v>56757</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>87785</v>
+        <v>88815</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2052551569608464</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1679635249324001</v>
+        <v>0.1649027546534581</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2550531308426053</v>
+        <v>0.2580446275135018</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>57</v>
@@ -4085,19 +4085,19 @@
         <v>54384</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>43793</v>
+        <v>42558</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>69477</v>
+        <v>68509</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1986867144626887</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1599954972169548</v>
+        <v>0.1554817708481647</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2538277438404747</v>
+        <v>0.2502928193012667</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>123</v>
@@ -4106,19 +4106,19 @@
         <v>125030</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>106891</v>
+        <v>105737</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>146004</v>
+        <v>145359</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2023454871005346</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1729906307125733</v>
+        <v>0.1711232098593815</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2362894098141861</v>
+        <v>0.2352463306665469</v>
       </c>
     </row>
     <row r="12">
@@ -4135,19 +4135,19 @@
         <v>80309</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>66127</v>
+        <v>64944</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>97666</v>
+        <v>96107</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2333315157015131</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1921253816812177</v>
+        <v>0.188688988260826</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2837588063657404</v>
+        <v>0.2792307974509077</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>75</v>
@@ -4156,19 +4156,19 @@
         <v>71433</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>57913</v>
+        <v>58295</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>86018</v>
+        <v>86510</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2609742400425646</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2115799333562334</v>
+        <v>0.2129758987512561</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3142604996103397</v>
+        <v>0.3160576890346058</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>153</v>
@@ -4177,19 +4177,19 @@
         <v>151742</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>132890</v>
+        <v>130744</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>174254</v>
+        <v>173895</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2455766106223599</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2150665433787301</v>
+        <v>0.2115928262590745</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2820087545396595</v>
+        <v>0.2814288642020327</v>
       </c>
     </row>
     <row r="13">
@@ -4206,19 +4206,19 @@
         <v>69298</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55755</v>
+        <v>54721</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>84976</v>
+        <v>84736</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2013402994880295</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1619904130835361</v>
+        <v>0.1589863471449148</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2468913286658074</v>
+        <v>0.2461938678128769</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -4227,19 +4227,19 @@
         <v>56987</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45043</v>
+        <v>45527</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70579</v>
+        <v>71185</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2081964220063549</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1645609260942855</v>
+        <v>0.1663280503130392</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2578545215265063</v>
+        <v>0.260069264003146</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>128</v>
@@ -4248,19 +4248,19 @@
         <v>126285</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>108403</v>
+        <v>106394</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>146506</v>
+        <v>146093</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2043774050203946</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1754367494996559</v>
+        <v>0.1721865574230076</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2371029989958436</v>
+        <v>0.236434503063556</v>
       </c>
     </row>
     <row r="14">
@@ -4277,19 +4277,19 @@
         <v>76530</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>61860</v>
+        <v>61328</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>91971</v>
+        <v>91645</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2223508804669338</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1797300060905881</v>
+        <v>0.1781839557828342</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2672126703149638</v>
+        <v>0.2662669641631367</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>47</v>
@@ -4298,19 +4298,19 @@
         <v>48507</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>37016</v>
+        <v>36878</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>61611</v>
+        <v>62960</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1772158234357379</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1352339638418364</v>
+        <v>0.1347295445410249</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2250894752847185</v>
+        <v>0.2300181566621428</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>120</v>
@@ -4319,19 +4319,19 @@
         <v>125037</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>105278</v>
+        <v>104566</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>145819</v>
+        <v>143582</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2023570820704403</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1703799669609862</v>
+        <v>0.1692279048182013</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2359906271115679</v>
+        <v>0.2323696352143378</v>
       </c>
     </row>
     <row r="15">
@@ -4423,19 +4423,19 @@
         <v>54357</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41292</v>
+        <v>40075</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>68365</v>
+        <v>69247</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1182733183923173</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08984564639474421</v>
+        <v>0.08719766709232608</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1487526716191908</v>
+        <v>0.1506724682477592</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>50</v>
@@ -4444,19 +4444,19 @@
         <v>47774</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36180</v>
+        <v>36605</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>60995</v>
+        <v>59893</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1505096069355652</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1139847241260896</v>
+        <v>0.1153213857900682</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1921635677656423</v>
+        <v>0.1886905875418471</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>102</v>
@@ -4465,19 +4465,19 @@
         <v>102131</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>84784</v>
+        <v>84589</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>122692</v>
+        <v>120187</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1314421986260133</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1091165590295918</v>
+        <v>0.1088663367580651</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1579042259172192</v>
+        <v>0.1546803219219033</v>
       </c>
     </row>
     <row r="17">
@@ -4494,19 +4494,19 @@
         <v>65122</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>51025</v>
+        <v>51292</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>82647</v>
+        <v>82827</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1416959568705993</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1110241078908902</v>
+        <v>0.1116040202464424</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1798278865622671</v>
+        <v>0.1802194920207574</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>58</v>
@@ -4515,19 +4515,19 @@
         <v>56716</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>44159</v>
+        <v>43923</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>71905</v>
+        <v>71583</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1786830115380885</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1391225606010043</v>
+        <v>0.1383775690904731</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2265332889101176</v>
+        <v>0.2255188202144414</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>119</v>
@@ -4536,19 +4536,19 @@
         <v>121838</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>102600</v>
+        <v>101228</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>142545</v>
+        <v>143036</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1568055775845308</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1320460293268516</v>
+        <v>0.1302798469596377</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1834556542019421</v>
+        <v>0.1840879000055977</v>
       </c>
     </row>
     <row r="18">
@@ -4565,19 +4565,19 @@
         <v>125572</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>106535</v>
+        <v>106637</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>145193</v>
+        <v>143343</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.273227693870696</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2318059472560551</v>
+        <v>0.2320283053519503</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3159203495356155</v>
+        <v>0.311894341395332</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>81</v>
@@ -4586,19 +4586,19 @@
         <v>79202</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>65360</v>
+        <v>63075</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>95488</v>
+        <v>93290</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2495232297150332</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2059126375923891</v>
+        <v>0.1987138204732496</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3008309333159345</v>
+        <v>0.2939064387262006</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>202</v>
@@ -4607,19 +4607,19 @@
         <v>204774</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>182826</v>
+        <v>181756</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>231431</v>
+        <v>227131</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2635441582164264</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2352969419901103</v>
+        <v>0.2339197459379979</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2978521087635232</v>
+        <v>0.2923181402881031</v>
       </c>
     </row>
     <row r="19">
@@ -4636,19 +4636,19 @@
         <v>99727</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>81966</v>
+        <v>83793</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>118193</v>
+        <v>121489</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2169930548154114</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1783468560938266</v>
+        <v>0.1823222006997046</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2571710009437367</v>
+        <v>0.2643440023145233</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>47</v>
@@ -4657,19 +4657,19 @@
         <v>47403</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>35982</v>
+        <v>36249</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>61895</v>
+        <v>62094</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1493399961428792</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.113360477866514</v>
+        <v>0.1141994456551217</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1949973671086019</v>
+        <v>0.1956252148711087</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>141</v>
@@ -4678,19 +4678,19 @@
         <v>147130</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>126010</v>
+        <v>126135</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>169733</v>
+        <v>169533</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1893560324607275</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1621742687272738</v>
+        <v>0.1623361627240886</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2184457791663323</v>
+        <v>0.2181886339959331</v>
       </c>
     </row>
     <row r="20">
@@ -4707,19 +4707,19 @@
         <v>114810</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>98289</v>
+        <v>96947</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>135956</v>
+        <v>134584</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.249809976050976</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2138641065240023</v>
+        <v>0.2109426413665367</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2958213237203505</v>
+        <v>0.2928365647350415</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>83</v>
@@ -4728,19 +4728,19 @@
         <v>86319</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>70883</v>
+        <v>71623</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>103466</v>
+        <v>103056</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2719441556684339</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.223312800607214</v>
+        <v>0.2256466200868389</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3259654279454784</v>
+        <v>0.3246724760770755</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>192</v>
@@ -4749,19 +4749,19 @@
         <v>201128</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>177252</v>
+        <v>177810</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>226762</v>
+        <v>226342</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.258852033112302</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2281236400739363</v>
+        <v>0.2288414228792229</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2918427829079374</v>
+        <v>0.2913015530677212</v>
       </c>
     </row>
     <row r="21">
@@ -4853,19 +4853,19 @@
         <v>48973</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>36851</v>
+        <v>35428</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>64650</v>
+        <v>65222</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1331776637420675</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1002131406257279</v>
+        <v>0.0963416437511833</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1758095434860154</v>
+        <v>0.1773649599098806</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>35</v>
@@ -4874,19 +4874,19 @@
         <v>38432</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>27750</v>
+        <v>27688</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>51248</v>
+        <v>50563</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1580776613364915</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1141416915887671</v>
+        <v>0.1138850736787862</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.210795392514172</v>
+        <v>0.2079780782234376</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>76</v>
@@ -4895,19 +4895,19 @@
         <v>87405</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>70604</v>
+        <v>70214</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>106596</v>
+        <v>107145</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1430879135424633</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.115584194481262</v>
+        <v>0.1149447651370762</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.174505156227498</v>
+        <v>0.1754041783028469</v>
       </c>
     </row>
     <row r="23">
@@ -4924,19 +4924,19 @@
         <v>49609</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>36502</v>
+        <v>37702</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>63151</v>
+        <v>62641</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1349079756137942</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09926302531034002</v>
+        <v>0.102527900705294</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1717324333884458</v>
+        <v>0.1703449687628501</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>34</v>
@@ -4945,19 +4945,19 @@
         <v>36358</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>26893</v>
+        <v>25966</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>49744</v>
+        <v>49092</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1495487042394193</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1106162435870536</v>
+        <v>0.1068024244630158</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2046077682571796</v>
+        <v>0.201926531751973</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>80</v>
@@ -4966,19 +4966,19 @@
         <v>85967</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>69640</v>
+        <v>70081</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>105824</v>
+        <v>104722</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1407350154514302</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1140055764069891</v>
+        <v>0.1147279594949305</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1732420715135503</v>
+        <v>0.1714368749561336</v>
       </c>
     </row>
     <row r="24">
@@ -4995,19 +4995,19 @@
         <v>95249</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>78287</v>
+        <v>77708</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>113743</v>
+        <v>114067</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2590196182262013</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2128934026685016</v>
+        <v>0.2113179650167709</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.309312764957189</v>
+        <v>0.3101946736124416</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>59</v>
@@ -5016,19 +5016,19 @@
         <v>63340</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>51230</v>
+        <v>50034</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>78941</v>
+        <v>77753</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.260531713128294</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.210719925503382</v>
+        <v>0.2057992606186939</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3247038813104097</v>
+        <v>0.3198169879516272</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>146</v>
@@ -5037,19 +5037,19 @@
         <v>158589</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>137154</v>
+        <v>137343</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>183800</v>
+        <v>181448</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2596214350795892</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2245317233679637</v>
+        <v>0.224840539715654</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3008946225577512</v>
+        <v>0.2970438055581675</v>
       </c>
     </row>
     <row r="25">
@@ -5066,19 +5066,19 @@
         <v>78645</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>63042</v>
+        <v>62933</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>95481</v>
+        <v>97977</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2138668937892445</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1714362943225627</v>
+        <v>0.1711389208215535</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2596512372162672</v>
+        <v>0.2664393507536814</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>43</v>
@@ -5087,19 +5087,19 @@
         <v>46543</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>34437</v>
+        <v>35061</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>60001</v>
+        <v>59706</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1914409159096218</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1416474073497391</v>
+        <v>0.1442135272077214</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2467968528649772</v>
+        <v>0.2455828740638843</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>112</v>
@@ -5108,19 +5108,19 @@
         <v>125188</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>104955</v>
+        <v>104471</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>147504</v>
+        <v>148239</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2049413088785463</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1718197127782044</v>
+        <v>0.1710271204883911</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.241475705159661</v>
+        <v>0.2426782727753426</v>
       </c>
     </row>
     <row r="26">
@@ -5137,19 +5137,19 @@
         <v>95252</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>78537</v>
+        <v>79869</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>113142</v>
+        <v>112315</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2590278486286925</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2135731139863501</v>
+        <v>0.2171968757378186</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3076791157937324</v>
+        <v>0.3054305218478846</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>52</v>
@@ -5158,19 +5158,19 @@
         <v>58446</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>44823</v>
+        <v>45876</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>72658</v>
+        <v>73490</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2404010053861734</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1843670843405057</v>
+        <v>0.188700401799976</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2988576778505648</v>
+        <v>0.3022798367719488</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>140</v>
@@ -5179,19 +5179,19 @@
         <v>153698</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>132811</v>
+        <v>131736</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>175606</v>
+        <v>176588</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2516143270479709</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.21742117138094</v>
+        <v>0.2156620212354061</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2874801702414639</v>
+        <v>0.2890879788899532</v>
       </c>
     </row>
     <row r="27">
@@ -5283,19 +5283,19 @@
         <v>17721</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>10799</v>
+        <v>10087</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>26448</v>
+        <v>26942</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1069287647174148</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06515944181405128</v>
+        <v>0.06086392082280063</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1595886495541855</v>
+        <v>0.1625719171620987</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>12</v>
@@ -5304,19 +5304,19 @@
         <v>14545</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>8078</v>
+        <v>8344</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>23995</v>
+        <v>23541</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1373738449882888</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07629103309113001</v>
+        <v>0.07880628319226742</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2266268244518745</v>
+        <v>0.2223354919168439</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>28</v>
@@ -5325,19 +5325,19 @@
         <v>32266</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>21746</v>
+        <v>22011</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>45039</v>
+        <v>44061</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1187970544884669</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08006593121935249</v>
+        <v>0.08103874919308304</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1658242891119354</v>
+        <v>0.1622261945470605</v>
       </c>
     </row>
     <row r="29">
@@ -5354,19 +5354,19 @@
         <v>23989</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>15861</v>
+        <v>15757</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>34965</v>
+        <v>34752</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1447494010665547</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09570390739178326</v>
+        <v>0.09508008095188866</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2109826716723505</v>
+        <v>0.2096952899811718</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>17</v>
@@ -5375,19 +5375,19 @@
         <v>19521</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>12376</v>
+        <v>11327</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>29755</v>
+        <v>29036</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1843739677189599</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1168871078226635</v>
+        <v>0.1069821725164478</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2810294884384834</v>
+        <v>0.274238830300045</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>38</v>
@@ -5396,19 +5396,19 @@
         <v>43510</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>29978</v>
+        <v>31270</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>57202</v>
+        <v>57078</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1601960950775083</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1103744114133171</v>
+        <v>0.1151306232638983</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2106089944682863</v>
+        <v>0.2101503917399427</v>
       </c>
     </row>
     <row r="30">
@@ -5425,19 +5425,19 @@
         <v>36663</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>26368</v>
+        <v>25973</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>49438</v>
+        <v>48433</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2212270496863959</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1591084414309421</v>
+        <v>0.1567219314298511</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.298312916089074</v>
+        <v>0.2922462588297041</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>24</v>
@@ -5446,19 +5446,19 @@
         <v>27753</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>18893</v>
+        <v>18653</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>37949</v>
+        <v>37523</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.262122860627669</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.178442398843319</v>
+        <v>0.1761690646139658</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3584189195516225</v>
+        <v>0.3543909198998981</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>56</v>
@@ -5467,19 +5467,19 @@
         <v>64416</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>49931</v>
+        <v>49504</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>81217</v>
+        <v>79300</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2371693080202498</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1838381708417195</v>
+        <v>0.1822665097304385</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.299026422672885</v>
+        <v>0.2919694243196824</v>
       </c>
     </row>
     <row r="31">
@@ -5496,19 +5496,19 @@
         <v>32411</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>22299</v>
+        <v>22220</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>44997</v>
+        <v>45184</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1955711499656687</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1345508813022166</v>
+        <v>0.1340782597269394</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2715128833662609</v>
+        <v>0.2726401862527952</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>17</v>
@@ -5517,19 +5517,19 @@
         <v>19787</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>12500</v>
+        <v>12565</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>29285</v>
+        <v>29587</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1868827513540852</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1180629822555443</v>
+        <v>0.1186753253925826</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2765870860592186</v>
+        <v>0.2794437930112117</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>45</v>
@@ -5538,19 +5538,19 @@
         <v>52198</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>39213</v>
+        <v>39546</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>67450</v>
+        <v>69009</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1921841846020947</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1443764441593903</v>
+        <v>0.1455997315079832</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2483394888446629</v>
+        <v>0.2540782162428019</v>
       </c>
     </row>
     <row r="32">
@@ -5567,19 +5567,19 @@
         <v>54942</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>42970</v>
+        <v>43201</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>68109</v>
+        <v>67486</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3315236345639659</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2592853398092354</v>
+        <v>0.2606798913837918</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4109721490211439</v>
+        <v>0.4072129515761606</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>20</v>
@@ -5588,19 +5588,19 @@
         <v>24272</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>15764</v>
+        <v>16003</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>34018</v>
+        <v>33961</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2292465753109972</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1488872418569633</v>
+        <v>0.15114572869425</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3212951203697401</v>
+        <v>0.3207520082028588</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>69</v>
@@ -5609,19 +5609,19 @@
         <v>79215</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>64732</v>
+        <v>64263</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>96592</v>
+        <v>96909</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2916533578116804</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2383313196147422</v>
+        <v>0.2366047804057126</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3556326556247776</v>
+        <v>0.3568027406632232</v>
       </c>
     </row>
     <row r="33">
@@ -5713,19 +5713,19 @@
         <v>181453</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>156314</v>
+        <v>158277</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>213107</v>
+        <v>210496</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1281143089330499</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1103652759262319</v>
+        <v>0.1117509877520009</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1504636054651228</v>
+        <v>0.1486198790116132</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>154</v>
@@ -5734,19 +5734,19 @@
         <v>155972</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>134470</v>
+        <v>134517</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>180906</v>
+        <v>179726</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1511384624453284</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1303030155977221</v>
+        <v>0.1303486731341208</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1752998928961585</v>
+        <v>0.1741564262262325</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>319</v>
@@ -5755,19 +5755,19 @@
         <v>337425</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>303503</v>
+        <v>298419</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>373810</v>
+        <v>369866</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1378191347561786</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1239638436379991</v>
+        <v>0.1218873998427261</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.152680180111026</v>
+        <v>0.1510695204631233</v>
       </c>
     </row>
     <row r="35">
@@ -5784,19 +5784,19 @@
         <v>224892</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>197387</v>
+        <v>197804</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>255991</v>
+        <v>253777</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1587839403078326</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1393644584993994</v>
+        <v>0.1396589249419461</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.180741644995669</v>
+        <v>0.1791787082115796</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>187</v>
@@ -5805,19 +5805,19 @@
         <v>188822</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>165072</v>
+        <v>165758</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>215021</v>
+        <v>214513</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1829704497838535</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1599561963641669</v>
+        <v>0.1606207252853838</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2083570341683391</v>
+        <v>0.2078652186189791</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>396</v>
@@ -5826,19 +5826,19 @@
         <v>413714</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>378637</v>
+        <v>377754</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>455692</v>
+        <v>452371</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1689787064958299</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1546520486614432</v>
+        <v>0.1542911343515068</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1861243598451608</v>
+        <v>0.1847679278116919</v>
       </c>
     </row>
     <row r="36">
@@ -5855,19 +5855,19 @@
         <v>362512</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>330068</v>
+        <v>329880</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>398485</v>
+        <v>397903</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2559501661815195</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2330430986586944</v>
+        <v>0.2329104154494386</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2813488515606303</v>
+        <v>0.280938285637594</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>262</v>
@@ -5876,19 +5876,19 @@
         <v>263594</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>236828</v>
+        <v>237315</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>294133</v>
+        <v>291936</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2554249434927726</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2294888871738673</v>
+        <v>0.2299602123354729</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2850174389544781</v>
+        <v>0.2828882880332569</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>602</v>
@@ -5897,19 +5897,19 @@
         <v>626105</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>582556</v>
+        <v>578661</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>671295</v>
+        <v>668965</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2557287815078148</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2379413175080911</v>
+        <v>0.2363506219456906</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2741862371252232</v>
+        <v>0.273234656315072</v>
       </c>
     </row>
     <row r="37">
@@ -5926,19 +5926,19 @@
         <v>296563</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>266245</v>
+        <v>265220</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>330007</v>
+        <v>328249</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2093872875180533</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1879816250648257</v>
+        <v>0.1872577901912385</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2330002802810571</v>
+        <v>0.2317592110070219</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>187</v>
@@ -5947,19 +5947,19 @@
         <v>190538</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>167301</v>
+        <v>165899</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>214981</v>
+        <v>216972</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1846330474943618</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1621160319890174</v>
+        <v>0.1607576460280092</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2083188653349954</v>
+        <v>0.2102476871134535</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>462</v>
@@ -5968,19 +5968,19 @@
         <v>487101</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>449510</v>
+        <v>449225</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>526872</v>
+        <v>529375</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1989532193258945</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1835993832266706</v>
+        <v>0.1834831788909915</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2151973961354663</v>
+        <v>0.2162197121424936</v>
       </c>
     </row>
     <row r="38">
@@ -5997,19 +5997,19 @@
         <v>350918</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>321455</v>
+        <v>319172</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>386719</v>
+        <v>383337</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2477642970595447</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2269621508631427</v>
+        <v>0.2253499709967105</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2730416496171114</v>
+        <v>0.2706538474220149</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>218</v>
@@ -6018,19 +6018,19 @@
         <v>233056</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>204445</v>
+        <v>208251</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>260312</v>
+        <v>263628</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2258330967836837</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1981095525970482</v>
+        <v>0.2017970730440551</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2522445316981143</v>
+        <v>0.2554577745541929</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>546</v>
@@ -6039,19 +6039,19 @@
         <v>583973</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>542715</v>
+        <v>547359</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>625484</v>
+        <v>630830</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2385201579142824</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2216685666999541</v>
+        <v>0.2235653122585222</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2554748250609022</v>
+        <v>0.257658488846857</v>
       </c>
     </row>
     <row r="39">
